--- a/Processed Data/consumer_harbs_plasma.xlsx
+++ b/Processed Data/consumer_harbs_plasma.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
